--- a/pred_ohlcv/54_21/2020-01-11 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ETZ ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>983432.1987096479</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>889341.9849113239</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>978897.8845214583</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1051003.383921458</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1276369.865621458</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1465143.322336363</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2249435.316021458</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1924944.932464679</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1684269.228364679</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1895136.655664358</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2351505.840110962</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2351290.288631899</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2199919.7786319</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2705660.9447319</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2423355.269131899</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2512286.183631899</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2195966.209431899</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1980128.744269303</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1932131.217998181</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1932131.217998181</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1198516.364884138</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1230566.477284138</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1315977.514884138</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2121294.476180252</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1946214.928380252</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-7470617.371390174</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-7647433.390990174</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-7383503.776890174</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-7361696.776890174</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-7543753.460690174</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-7218040.861790175</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-7272434.741390174</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-7272434.741390174</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ETZ ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>983432.1987096479</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>889341.9849113239</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>978897.8845214583</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1051003.383921458</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1276369.865621458</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1465143.322336363</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2249435.316021458</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2523278.854364679</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1924944.932464679</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1880415.240464679</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2005139.558564679</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1684269.228364679</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1842140.148581722</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1577145.280081722</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1160111.824381722</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1895136.655664358</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2351505.840110962</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2199919.7786319</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2705660.9447319</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2423355.269131899</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1980128.744269303</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1932131.217998181</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1932131.217998181</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1569057.271884138</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1398363.708184138</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1198516.364884138</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1230566.477284138</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1315977.514884138</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2621309.674584137</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2256257.624780252</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2121294.476180252</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1946214.928380252</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2143205.989780252</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2039959.343780252</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2021770.679080252</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1449507.002680252</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1626872.559080252</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1580993.096780252</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1033562.820980252</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1194416.456580252</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1314426.052780252</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1228379.898080252</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>836497.6981802519</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>103416.7643802519</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>89074.50948025181</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-182788.5157197482</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-226639.5298197482</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-430034.2446197481</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-746191.2745197482</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-931835.8456197487</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1005918.879652749</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1085284.035252749</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1179125.981352749</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-990397.5273527488</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1133322.590952749</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1022446.238452749</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-988253.5288527488</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1258533.643852749</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1139570.785252749</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1103551.225452749</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1103551.225452749</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1119966.530252749</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1122284.154352749</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1131237.943826433</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1203055.474026433</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1120811.147326433</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1042289.703226433</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-937660.770188362</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-949852.8471068334</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1010536.435806833</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-979232.0013299304</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1467117.789529398</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1563462.982589755</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1628866.887159138</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1858332.2268491</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1724265.066220324</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1724265.066220324</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2446587.809020324</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2586824.369135987</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-7313867.548006257</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-7147558.943406879</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-7147558.943406879</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-7352319.366406879</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-7360575.176590174</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-7470617.371390174</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-7647433.390990174</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-7116990.717790174</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-7086453.206890174</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-7486519.804390174</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-7543753.460690174</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-7218040.861790175</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-7272434.741390174</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
